--- a/model/machine_learning/covid_19/国内疫情数据.xlsx
+++ b/model/machine_learning/covid_19/国内疫情数据.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master\work\model\machine_learning\covid_19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4335D22-16AA-4B97-9687-FA0F2E2ADDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1066,15 +1072,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1082,8 +1088,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1127,18 +1140,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1180,7 +1201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1212,9 +1233,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1246,6 +1285,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1421,14 +1478,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43800</v>
       </c>
@@ -1462,7 +1522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43801</v>
       </c>
@@ -1479,7 +1539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43802</v>
       </c>
@@ -1496,7 +1556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43803</v>
       </c>
@@ -1513,7 +1573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43804</v>
       </c>
@@ -1530,7 +1590,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43805</v>
       </c>
@@ -1547,7 +1607,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>43806</v>
       </c>
@@ -1564,7 +1624,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43807</v>
       </c>
@@ -1581,7 +1641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43808</v>
       </c>
@@ -1598,7 +1658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43809</v>
       </c>
@@ -1615,7 +1675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43810</v>
       </c>
@@ -1632,7 +1692,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43811</v>
       </c>
@@ -1649,7 +1709,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43812</v>
       </c>
@@ -1666,7 +1726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43813</v>
       </c>
@@ -1683,7 +1743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>43814</v>
       </c>
@@ -1700,7 +1760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43815</v>
       </c>
@@ -1717,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43816</v>
       </c>
@@ -1734,7 +1794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43817</v>
       </c>
@@ -1751,7 +1811,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43818</v>
       </c>
@@ -1768,7 +1828,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43819</v>
       </c>
@@ -1785,7 +1845,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43820</v>
       </c>
@@ -1802,7 +1862,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43821</v>
       </c>
@@ -1819,7 +1879,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43822</v>
       </c>
@@ -1836,7 +1896,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43823</v>
       </c>
@@ -1853,7 +1913,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43824</v>
       </c>
@@ -1870,7 +1930,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43825</v>
       </c>
@@ -1887,7 +1947,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43826</v>
       </c>
@@ -1904,7 +1964,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43827</v>
       </c>
@@ -1921,7 +1981,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43828</v>
       </c>
@@ -1938,7 +1998,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43829</v>
       </c>
@@ -1955,7 +2015,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>43830</v>
       </c>
@@ -1972,7 +2032,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>43831</v>
       </c>
@@ -1989,7 +2049,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>43832</v>
       </c>
@@ -2006,7 +2066,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>43833</v>
       </c>
@@ -2023,7 +2083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>43834</v>
       </c>
@@ -2040,7 +2100,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>43835</v>
       </c>
@@ -2057,7 +2117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>43836</v>
       </c>
@@ -2074,7 +2134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>43837</v>
       </c>
@@ -2091,7 +2151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>43838</v>
       </c>
@@ -2108,7 +2168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>43839</v>
       </c>
@@ -2125,7 +2185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>43840</v>
       </c>
@@ -2142,7 +2202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>43841</v>
       </c>
@@ -2159,7 +2219,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43842</v>
       </c>
@@ -2176,7 +2236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>43843</v>
       </c>
@@ -2193,7 +2253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>43844</v>
       </c>
@@ -2210,7 +2270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>43845</v>
       </c>
@@ -2227,7 +2287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>43846</v>
       </c>
@@ -2244,7 +2304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>43847</v>
       </c>
@@ -2261,7 +2321,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>43848</v>
       </c>
@@ -2278,7 +2338,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>43849</v>
       </c>
@@ -2295,7 +2355,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>43850</v>
       </c>
@@ -2312,7 +2372,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>43851</v>
       </c>
@@ -2329,7 +2389,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>43852</v>
       </c>
@@ -2346,7 +2406,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>43853</v>
       </c>
@@ -2363,7 +2423,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>43854</v>
       </c>
@@ -2380,7 +2440,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>43855</v>
       </c>
@@ -2397,7 +2457,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>43856</v>
       </c>
@@ -2414,7 +2474,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>43857</v>
       </c>
@@ -2431,7 +2491,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>43858</v>
       </c>
@@ -2448,7 +2508,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>43859</v>
       </c>
@@ -2465,7 +2525,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>43860</v>
       </c>
@@ -2482,7 +2542,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>43861</v>
       </c>
@@ -2499,7 +2559,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>43862</v>
       </c>
@@ -2516,7 +2576,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>43863</v>
       </c>
@@ -2533,7 +2593,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>43864</v>
       </c>
@@ -2550,7 +2610,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>43865</v>
       </c>
@@ -2567,7 +2627,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>43866</v>
       </c>
@@ -2584,7 +2644,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>43867</v>
       </c>
@@ -2601,7 +2661,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>43868</v>
       </c>
@@ -2618,7 +2678,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>43869</v>
       </c>
@@ -2635,7 +2695,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>43870</v>
       </c>
@@ -2652,7 +2712,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>43871</v>
       </c>
@@ -2669,7 +2729,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>43872</v>
       </c>
@@ -2686,7 +2746,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>43873</v>
       </c>
@@ -2703,7 +2763,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>43874</v>
       </c>
@@ -2720,7 +2780,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>43875</v>
       </c>
@@ -2737,7 +2797,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>43876</v>
       </c>
@@ -2754,7 +2814,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>43877</v>
       </c>
@@ -2771,7 +2831,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>43878</v>
       </c>
@@ -2788,7 +2848,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>43879</v>
       </c>
@@ -2805,7 +2865,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>43880</v>
       </c>
@@ -2822,7 +2882,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>43881</v>
       </c>
@@ -2839,7 +2899,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>43882</v>
       </c>
@@ -2856,7 +2916,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>43883</v>
       </c>
@@ -2873,7 +2933,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>43884</v>
       </c>
@@ -2890,7 +2950,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>43885</v>
       </c>
@@ -2907,7 +2967,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>43886</v>
       </c>
@@ -2924,7 +2984,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>43887</v>
       </c>
@@ -2941,7 +3001,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>43888</v>
       </c>
@@ -2958,7 +3018,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>43889</v>
       </c>
@@ -2975,7 +3035,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>43890</v>
       </c>
@@ -2992,7 +3052,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>43891</v>
       </c>
@@ -3009,7 +3069,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>43892</v>
       </c>
@@ -3026,7 +3086,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>43893</v>
       </c>
@@ -3043,7 +3103,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>43894</v>
       </c>
@@ -3060,7 +3120,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>43895</v>
       </c>
@@ -3077,7 +3137,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>43896</v>
       </c>
@@ -3094,7 +3154,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>43897</v>
       </c>
@@ -3111,7 +3171,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>43898</v>
       </c>
@@ -3128,7 +3188,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>43899</v>
       </c>
@@ -3145,7 +3205,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>43900</v>
       </c>
@@ -3162,7 +3222,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>43901</v>
       </c>
@@ -3179,7 +3239,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>43902</v>
       </c>
@@ -3196,7 +3256,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>43903</v>
       </c>
@@ -3213,7 +3273,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>43904</v>
       </c>
@@ -3230,7 +3290,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>43905</v>
       </c>
@@ -3247,7 +3307,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>43906</v>
       </c>
@@ -3264,7 +3324,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>43907</v>
       </c>
@@ -3281,7 +3341,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>43908</v>
       </c>
@@ -3298,7 +3358,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>43909</v>
       </c>
@@ -3315,7 +3375,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>43910</v>
       </c>
@@ -3332,7 +3392,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>43911</v>
       </c>
@@ -3349,7 +3409,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>43912</v>
       </c>
@@ -3366,7 +3426,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>43913</v>
       </c>
@@ -3383,7 +3443,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>43914</v>
       </c>
@@ -3400,7 +3460,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>43915</v>
       </c>
@@ -3417,7 +3477,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>43916</v>
       </c>
@@ -3434,7 +3494,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>43917</v>
       </c>
@@ -3451,7 +3511,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>43918</v>
       </c>
@@ -3468,7 +3528,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>43919</v>
       </c>
@@ -3485,7 +3545,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>43920</v>
       </c>
@@ -3502,7 +3562,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>43921</v>
       </c>
@@ -3519,7 +3579,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>43922</v>
       </c>
@@ -3536,7 +3596,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>43923</v>
       </c>
@@ -3553,7 +3613,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>43924</v>
       </c>
@@ -3570,7 +3630,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>43925</v>
       </c>
@@ -3587,7 +3647,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>43926</v>
       </c>
@@ -3604,7 +3664,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>43927</v>
       </c>
@@ -3621,7 +3681,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>43928</v>
       </c>
@@ -3638,7 +3698,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>43929</v>
       </c>
@@ -3655,7 +3715,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>43930</v>
       </c>
@@ -3673,6 +3733,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>